--- a/myESC-Particle-DEV/saves/matlabTuning.xlsx
+++ b/myESC-Particle-DEV/saves/matlabTuning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>throttle, deg</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>ngrpm</t>
-  </si>
-  <si>
-    <t>TauF, s</t>
-  </si>
-  <si>
-    <t>trise90, s</t>
   </si>
   <si>
     <t>tsettle2, s</t>
@@ -69,46 +63,7 @@
     <t>Design LG, r/s</t>
   </si>
   <si>
-    <t>from  calibration20161019.xlsx</t>
-  </si>
-  <si>
     <t>Entries for potESC.ino Arduino</t>
-  </si>
-  <si>
-    <t>POT_MAX</t>
-  </si>
-  <si>
-    <t>POT_MIN</t>
-  </si>
-  <si>
-    <t>F2V_MAX</t>
-  </si>
-  <si>
-    <t>F2V_MIN</t>
-  </si>
-  <si>
-    <t>RPM_P</t>
-  </si>
-  <si>
-    <t>THTL_MAX</t>
-  </si>
-  <si>
-    <t>THTL_MIN</t>
-  </si>
-  <si>
-    <t>P_V4_NF</t>
-  </si>
-  <si>
-    <t>P_LT_NG</t>
-  </si>
-  <si>
-    <t>P_NG_NF</t>
-  </si>
-  <si>
-    <t>P_NF_NG</t>
-  </si>
-  <si>
-    <t>P_NG_QG</t>
   </si>
   <si>
     <t>TauT, s</t>
@@ -120,12 +75,6 @@
     <t>Control LG</t>
   </si>
   <si>
-    <t>P_NF_QF</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>yLG</t>
   </si>
   <si>
@@ -133,6 +82,69 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Z.TauT, s</t>
+  </si>
+  <si>
+    <t>E.TauE=0.2, Step</t>
+  </si>
+  <si>
+    <t>E.TauE=0.1, Step</t>
+  </si>
+  <si>
+    <t>trise95, s</t>
+  </si>
+  <si>
+    <t>%settle=4.9, %OS=5, %US=1</t>
+  </si>
+  <si>
+    <t>E.TauE=0.1, Dist</t>
+  </si>
+  <si>
+    <t>GM&gt;6dB, PM&gt;45 deg</t>
+  </si>
+  <si>
+    <t>tsettle05, s</t>
+  </si>
+  <si>
+    <t>Max Dist</t>
+  </si>
+  <si>
+    <t>Control tld Dist</t>
+  </si>
+  <si>
+    <t>Control LG Dist</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Nt, %</t>
+  </si>
+  <si>
+    <t>Measured TauT, s</t>
+  </si>
+  <si>
+    <t>Fit Tau</t>
+  </si>
+  <si>
+    <t>From  calibration.xlsx/TauPhotonTurnigy</t>
+  </si>
+  <si>
+    <t>Use measured Tau for best possible gain scheduling</t>
+  </si>
+  <si>
+    <t>Generate Nt columns by examining table to right</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>pcnt, %</t>
   </si>
 </sst>
 </file>
@@ -151,18 +163,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -173,6 +179,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,18 +213,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -209,10 +230,54 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -257,12 +322,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scheduled Gains</a:t>
+              <a:t>Scheduled Gains Reference</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6493000874890633E-2"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -273,9 +345,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10716907261592301"/>
-          <c:y val="5.1400554097404488E-2"/>
+          <c:y val="0.15788203557888597"/>
           <c:w val="0.58013473315835518"/>
-          <c:h val="0.7992629046369204"/>
+          <c:h val="0.69278142315543889"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -286,7 +358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$O$1</c:f>
+              <c:f>'Retune 20161102'!$O$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -302,9 +374,9 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$E$2:$E$7</c:f>
+              <c:f>'Retune 20161102'!$E$12:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.35</c:v>
@@ -329,27 +401,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$O$2:$O$7</c:f>
+              <c:f>'Retune 20161102'!$O$12:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.48799999999999999</c:v>
+                  <c:v>0.50115265109752427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42599999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.315</c:v>
+                  <c:v>0.31932558436581937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>0.24015369836695488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>0.17662227560139884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,7 +433,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$K$32</c:f>
+              <c:f>'Retune 20161102'!$R$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -386,15 +458,15 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$J$33:$J$38</c:f>
+              <c:f>'Retune 20161102'!$Q$42:$Q$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -413,27 +485,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$K$33:$K$38</c:f>
+              <c:f>'Retune 20161102'!$R$42:$R$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48799999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48799999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,8 +520,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="667810448"/>
-        <c:axId val="667808488"/>
+        <c:axId val="165133728"/>
+        <c:axId val="165132552"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -459,7 +531,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$P$1</c:f>
+              <c:f>'Retune 20161102'!$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -475,9 +547,9 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$E$2:$E$7</c:f>
+              <c:f>'Retune 20161102'!$E$12:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.35</c:v>
@@ -502,27 +574,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$P$2:$P$7</c:f>
+              <c:f>'Retune 20161102'!$P$12:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.44</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.53</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.28</c:v>
+                  <c:v>3.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.61</c:v>
+                  <c:v>4.5599999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +606,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$L$32</c:f>
+              <c:f>'Retune 20161102'!$S$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -555,15 +627,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$J$33:$J$38</c:f>
+              <c:f>'Retune 20161102'!$Q$42:$Q$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -582,27 +654,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$L$33:$L$38</c:f>
+              <c:f>'Retune 20161102'!$S$42:$S$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.6</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.28</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,13 +689,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="667805352"/>
-        <c:axId val="667809272"/>
+        <c:axId val="165137256"/>
+        <c:axId val="165132944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="667810448"/>
+        <c:axId val="165133728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -646,18 +719,19 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667808488"/>
+        <c:crossAx val="165132552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="667808488"/>
+        <c:axId val="165132552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -690,14 +764,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667810448"/>
+        <c:crossAx val="165133728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="667809272"/>
+        <c:axId val="165132944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -724,22 +799,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667805352"/>
+        <c:crossAx val="165137256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="667805352"/>
+        <c:axId val="165137256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667809272"/>
+        <c:crossAx val="165132944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -770,19 +845,1665 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scheduled Gains Disturbance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4160844331078321E-2"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10716907261592301"/>
+          <c:y val="0.18565981335666376"/>
+          <c:w val="0.50736479242911536"/>
+          <c:h val="0.6650036453776611"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design tld, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$O$21:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49164208456243857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44895393732603039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.350655726208009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26148576210025365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22097982454201934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21056177882590751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$R$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control tld Dist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$Q$67:$Q$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$R$67:$R$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="165138432"/>
+        <c:axId val="165138824"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design LG, r/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$21:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$S$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control LG Dist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$Q$67:$Q$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$S$67:$S$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="165134512"/>
+        <c:axId val="165139216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="165138432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TauT, s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165138824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="165138824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TLD,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165138432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="165139216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LG, r/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165134512"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="165134512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165139216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6489301689401501"/>
+          <c:y val="0.50386191309419659"/>
+          <c:w val="0.34743132108486441"/>
+          <c:h val="0.23764654418197725"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scheduled Gains Reference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6493000874890633E-2"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10716907261592301"/>
+          <c:y val="0.15788203557888597"/>
+          <c:w val="0.58013473315835518"/>
+          <c:h val="0.69278142315543889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design tld, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$O$12:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50115265109752427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31932558436581937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24015369836695488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17662227560139884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$R$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control tld</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$42:$P$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$R$42:$R$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="165135688"/>
+        <c:axId val="165136080"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design LG, r/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$12:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$S$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control LG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$42:$P$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$S$42:$S$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="513759536"/>
+        <c:axId val="163983512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="165135688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nt, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165136080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="165136080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TLD,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165135688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="163983512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LG, r/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513759536"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="513759536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163983512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75256867891513546"/>
+          <c:y val="5.0158209390492862E-2"/>
+          <c:w val="0.23909798775153107"/>
+          <c:h val="0.22838728492271798"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scheduled Gains Disturbance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4160844331078321E-2"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10716907261592301"/>
+          <c:y val="0.18565981335666376"/>
+          <c:w val="0.50736479242911536"/>
+          <c:h val="0.6650036453776611"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design tld, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$O$21:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49164208456243857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44895393732603039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.350655726208009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26148576210025365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22097982454201934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21056177882590751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$R$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control tld Dist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$67:$P$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$R$67:$R$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="513761104"/>
+        <c:axId val="513761888"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design LG, r/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$21:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$S$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control LG Dist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$67:$P$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$S$67:$S$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="513763456"/>
+        <c:axId val="513766984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="513761104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nt, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513761888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="513761888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TLD,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513761104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="513766984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LG, r/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513763456"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="513763456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513766984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6489301689401501"/>
+          <c:y val="0.50386191309419659"/>
+          <c:w val="0.34743132108486441"/>
+          <c:h val="0.23764654418197725"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -802,6 +2523,196 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12506325" y="7305675"/>
+          <a:ext cx="1543050" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12334875" y="11287125"/>
+          <a:ext cx="1400175" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1095,23 +3006,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
@@ -1123,707 +3034,1858 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="18">
         <v>0.35</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
         <v>0.33</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H3" s="14">
         <v>3.44</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="15">
         <v>0.48799999999999999</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J3" s="16">
         <v>15.3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K3" s="16">
         <v>14.4</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L3" s="16">
         <v>65.400000000000006</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M3" s="16">
         <v>4.04</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N3" s="16">
         <v>4.8</v>
       </c>
-      <c r="O2" s="5">
-        <f>I2</f>
+      <c r="O3" s="4">
+        <f>I3</f>
         <v>0.48799999999999999</v>
       </c>
-      <c r="P2" s="6">
-        <f>H2</f>
+      <c r="P3" s="5">
+        <f>H3</f>
         <v>3.44</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="3">
         <v>0.315</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="14">
         <v>3.52</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="15">
         <v>0.42599999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="16">
         <v>15.1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="16">
         <v>14.6</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="16">
         <v>65.900000000000006</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M4" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N4" s="16">
         <v>5</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O7" si="0">I3</f>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O8" si="0">I4</f>
         <v>0.42599999999999999</v>
       </c>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P7" si="1">H3</f>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P8" si="1">H4</f>
         <v>3.52</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="18">
         <v>0.2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="3">
         <v>0.31</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="14">
         <v>3.53</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="15">
         <v>0.315</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>0.315</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P5" s="5">
         <f t="shared" si="1"/>
         <v>3.53</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18">
         <v>0.1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="3">
         <v>0.23</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="14">
         <v>4.28</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="16">
         <v>13.8</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K6" s="16">
         <v>17.2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L6" s="16">
         <v>70</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M6" s="16">
         <v>4.8</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N6" s="16">
         <v>7</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P6" s="5">
         <f t="shared" si="1"/>
         <v>4.28</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18">
         <v>0.05</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="3">
         <v>0.17</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="14">
         <v>4.88</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="15">
         <v>0.16</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="16">
         <v>13.7</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="16">
         <v>20.8</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="16">
         <v>72.599999999999994</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="16">
         <v>5.4</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N7" s="16">
         <v>9</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P7" s="5">
         <f t="shared" si="1"/>
         <v>4.88</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="18">
         <v>0.02</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="3">
         <v>0.12</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="14">
         <v>5.61</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="15">
         <v>0.14099999999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="16">
         <v>14.4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="16">
         <v>27.4</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="16">
         <v>75.599999999999994</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="16">
         <v>6.2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="16">
         <v>12.5</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>0.14099999999999999</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P8" s="5">
         <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B12" s="9">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="I12" s="11">
+        <f>1/1.9954</f>
+        <v>0.50115265109752427</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L12" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="O12" s="4">
+        <f>I12</f>
+        <v>0.50115265109752427</v>
+      </c>
+      <c r="P12" s="5">
+        <f>H12</f>
+        <v>2.56</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="9">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="4">
+        <f t="shared" ref="O13:O17" si="2">I13</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" ref="P13:P17" si="3">H13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="9">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="I14" s="11">
+        <f>1/3.1316</f>
+        <v>0.31932558436581937</v>
+      </c>
+      <c r="J14" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="L14" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.31932558436581937</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="3"/>
+        <v>2.83</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7">
-        <v>460.8</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="9">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>1/4.164</f>
+        <v>0.24015369836695488</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="L15" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4.46</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.24015369836695488</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="3"/>
+        <v>3.32</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7">
-        <v>180</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I17" s="11">
+        <f>1/5.6618</f>
+        <v>0.17662227560139884</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="L17" s="3">
+        <v>68.5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17662227560139884</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="3"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="I21" s="11">
+        <f>1/2.034</f>
+        <v>0.49164208456243857</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L21" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="4">
+        <f>I21</f>
+        <v>0.49164208456243857</v>
+      </c>
+      <c r="P21" s="5">
+        <f>H21</f>
+        <v>3.81</v>
+      </c>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="I22" s="11">
+        <f>1/2.2274</f>
+        <v>0.44895393732603039</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9.44</v>
+      </c>
+      <c r="L22" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="4">
+        <f t="shared" ref="O22:O26" si="4">I22</f>
+        <v>0.44895393732603039</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" ref="P22:P26" si="5">H22</f>
+        <v>3.66</v>
+      </c>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9">
         <v>25</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="I23" s="11">
+        <f>1/2.8518</f>
+        <v>0.350655726208009</v>
+      </c>
+      <c r="J23" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>57.7</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.350655726208009</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="5"/>
+        <v>3.49</v>
+      </c>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="I24" s="11">
+        <f>1/3.8243</f>
+        <v>0.26148576210025365</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="K24" s="3">
+        <v>12</v>
+      </c>
+      <c r="L24" s="3">
+        <v>65</v>
+      </c>
+      <c r="M24" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26148576210025365</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="5"/>
+        <v>3.62</v>
+      </c>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="I25" s="11">
+        <f>1/4.5253</f>
+        <v>0.22097982454201934</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="K25" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="L25" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.22097982454201934</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="5"/>
+        <v>4.13</v>
+      </c>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9">
+        <v>74</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="11">
+        <f>1/4.7492</f>
+        <v>0.21056177882590751</v>
+      </c>
+      <c r="J26" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L26" s="3">
+        <v>67.8</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5.84</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21056177882590751</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
+        <f>Q42</f>
         <v>0</v>
       </c>
-      <c r="C18" s="7">
-        <v>14542.70476789044</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-351.19080582654192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="7">
-        <v>-28327.005397586898</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14190.01046667831</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="7">
-        <v>-10376.43880319349</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1.0267549592501404</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="7">
-        <v>10255.704306193587</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.96594425611798695</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="C29" s="6">
+        <f>Q43</f>
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="6">
+        <f>Q44</f>
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="6">
+        <f>Q45</f>
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="6">
+        <f>Q46</f>
+        <v>0.35</v>
+      </c>
+      <c r="G29" s="6">
+        <f>Q47</f>
+        <v>0.5</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="6">
+        <f>S42</f>
+        <v>4.8</v>
+      </c>
+      <c r="C30" s="6">
+        <f>S43</f>
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <f>S44</f>
+        <v>3.3</v>
+      </c>
+      <c r="E30" s="6">
+        <f>S45</f>
+        <v>2.8</v>
+      </c>
+      <c r="F30" s="6">
+        <f>S46</f>
+        <v>2.5</v>
+      </c>
+      <c r="G30" s="6">
+        <f>S47</f>
+        <v>2.5</v>
+      </c>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="23">
+        <f>R42</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C31" s="23">
+        <f>R43</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D31" s="23">
+        <f>R44</f>
+        <v>0.23</v>
+      </c>
+      <c r="E31" s="23">
+        <f>R45</f>
+        <v>0.32</v>
+      </c>
+      <c r="F31" s="23">
+        <f>R46</f>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="23">
+        <f>R47</f>
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="19"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S32" s="19"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="6">
+        <f>P47</f>
         <v>0</v>
       </c>
-      <c r="C22" s="7">
-        <v>1.7497144954938875E-7</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1.1535982759687281E-11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="C33" s="6">
+        <f>P46</f>
+        <v>16</v>
+      </c>
+      <c r="D33" s="6">
+        <f>P45</f>
+        <v>25</v>
+      </c>
+      <c r="E33" s="6">
+        <f>P44</f>
+        <v>47.5</v>
+      </c>
+      <c r="F33" s="6">
+        <f>P43</f>
+        <v>62</v>
+      </c>
+      <c r="G33" s="6">
+        <f>P42</f>
+        <v>80</v>
+      </c>
+      <c r="S33" s="19"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="6">
+        <f>S47</f>
+        <v>2.5</v>
+      </c>
+      <c r="C34" s="6">
+        <f>S46</f>
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="6">
+        <f>S45</f>
+        <v>2.8</v>
+      </c>
+      <c r="E34" s="6">
+        <f>S44</f>
+        <v>3.3</v>
+      </c>
+      <c r="F34" s="6">
+        <f>S43</f>
+        <v>4</v>
+      </c>
+      <c r="G34" s="6">
+        <f>S42</f>
+        <v>4.8</v>
+      </c>
+      <c r="S34" s="19"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="23">
+        <f>R47</f>
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="23">
+        <f>R46</f>
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="23">
+        <f>R45</f>
+        <v>0.32</v>
+      </c>
+      <c r="E35" s="23">
+        <f>R44</f>
+        <v>0.23</v>
+      </c>
+      <c r="F35" s="23">
+        <f>R43</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G35" s="23">
+        <f>R42</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S36" s="19"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S37" s="19"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P40" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7">
-        <v>6.0309482069359523E-3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>-2.7846014809314311E-7</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1.3528398887809465E-11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="Q41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P42" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="S42" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P43" s="9">
+        <v>62</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="S43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P44" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="S44" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P45" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="S45" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P46" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S46" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V49" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V50" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V51" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
-        <f>J33</f>
+      <c r="W51" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V52" s="18">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="W52" s="22">
+        <v>0.3917732370086745</v>
+      </c>
+      <c r="X52" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V53" s="18">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="W53" s="22">
+        <v>0.27537020278635105</v>
+      </c>
+      <c r="X53" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="6">
+        <f>Q67</f>
         <v>0</v>
       </c>
-      <c r="C24" s="7">
-        <f>J34</f>
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="7">
-        <f>J35</f>
+      <c r="C54" s="6">
+        <f>Q68</f>
+        <v>0.05</v>
+      </c>
+      <c r="D54" s="6">
+        <f>Q69</f>
         <v>0.1</v>
       </c>
-      <c r="E24" s="7">
-        <f>J36</f>
+      <c r="E54" s="6">
+        <f>Q70</f>
         <v>0.2</v>
       </c>
-      <c r="F24" s="7">
-        <f>J37</f>
+      <c r="F54" s="6">
+        <f>Q71</f>
         <v>0.35</v>
       </c>
-      <c r="G24" s="7">
-        <f>J38</f>
+      <c r="G54" s="6">
+        <f>Q72</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="7">
-        <f>L33</f>
-        <v>5.6</v>
-      </c>
-      <c r="C25" s="7">
-        <f>L34</f>
-        <v>5.6</v>
-      </c>
-      <c r="D25" s="7">
-        <f>L35</f>
-        <v>4.28</v>
-      </c>
-      <c r="E25" s="7">
-        <f>L36</f>
+      <c r="V54" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="W54" s="22">
+        <v>0.19355265092014706</v>
+      </c>
+      <c r="X54" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="6">
+        <f>S67</f>
+        <v>5.5</v>
+      </c>
+      <c r="C55" s="6">
+        <f>S68</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D55" s="6">
+        <f>S69</f>
         <v>3.5</v>
       </c>
-      <c r="F25" s="7">
-        <f>L37</f>
+      <c r="E55" s="6">
+        <f>S70</f>
         <v>3.4</v>
       </c>
-      <c r="G25" s="7">
-        <f>L38</f>
+      <c r="F55" s="6">
+        <f>S71</f>
+        <v>3.8</v>
+      </c>
+      <c r="G55" s="6">
+        <f>S72</f>
+        <v>3.8</v>
+      </c>
+      <c r="V55" s="18">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="W55" s="22">
+        <v>0.10878935110598625</v>
+      </c>
+      <c r="X55" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="23">
+        <f>R67</f>
+        <v>0.21</v>
+      </c>
+      <c r="C56" s="23">
+        <f>R68</f>
+        <v>0.21</v>
+      </c>
+      <c r="D56" s="23">
+        <f>R69</f>
+        <v>0.255</v>
+      </c>
+      <c r="E56" s="23">
+        <f>R70</f>
+        <v>0.34</v>
+      </c>
+      <c r="F56" s="23">
+        <f>R71</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G56" s="23">
+        <f>R72</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="V56" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="W56" s="22">
+        <v>7.6466034034855926E-2</v>
+      </c>
+      <c r="X56" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V57" s="18">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="W57" s="22">
+        <v>6.4739856241990537E-2</v>
+      </c>
+      <c r="X57" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="6">
+        <f>P72</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="6">
+        <f>P71</f>
+        <v>16</v>
+      </c>
+      <c r="D58" s="6">
+        <f>P70</f>
+        <v>25</v>
+      </c>
+      <c r="E58" s="6">
+        <f>P69</f>
+        <v>47.5</v>
+      </c>
+      <c r="F58" s="6">
+        <f>P68</f>
+        <v>62</v>
+      </c>
+      <c r="G58" s="6">
+        <f>P67</f>
+        <v>80</v>
+      </c>
+      <c r="V58" s="18">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="W58" s="22">
+        <v>6.0849785914015388E-2</v>
+      </c>
+      <c r="X58" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="6">
+        <f>S72</f>
+        <v>3.8</v>
+      </c>
+      <c r="C59" s="6">
+        <f>S71</f>
+        <v>3.8</v>
+      </c>
+      <c r="D59" s="6">
+        <f>S70</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7">
-        <f>K33</f>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="C26" s="7">
-        <f>K34</f>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="D26" s="7">
-        <f>K35</f>
+      <c r="E59" s="6">
+        <f>S69</f>
+        <v>3.5</v>
+      </c>
+      <c r="F59" s="6">
+        <f>S68</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G59" s="6">
+        <f>S67</f>
+        <v>5.5</v>
+      </c>
+      <c r="V59" s="18">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="W59" s="22">
+        <v>5.5689239628374895E-2</v>
+      </c>
+      <c r="X59" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="23">
+        <f>R72</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C60" s="23">
+        <f>R71</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D60" s="23">
+        <f>R70</f>
+        <v>0.34</v>
+      </c>
+      <c r="E60" s="23">
+        <f>R69</f>
+        <v>0.255</v>
+      </c>
+      <c r="F60" s="23">
+        <f>R68</f>
+        <v>0.21</v>
+      </c>
+      <c r="G60" s="23">
+        <f>R67</f>
+        <v>0.21</v>
+      </c>
+      <c r="V60" s="18">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="W60" s="22">
+        <v>4.6085623567052196E-2</v>
+      </c>
+      <c r="X60" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P65" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P66" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P67" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="S67" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P68" s="9">
+        <v>62</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="R68" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="S68" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P69" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R69" s="4">
+        <v>0.255</v>
+      </c>
+      <c r="S69" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="70" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P70" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="4">
         <v>0.2</v>
       </c>
-      <c r="E26" s="7">
-        <f>K36</f>
-        <v>0.31</v>
-      </c>
-      <c r="F26" s="7">
-        <f>K37</f>
+      <c r="R70" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="S70" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="71" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P71" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="R71" s="4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G26" s="7">
-        <f>K38</f>
+      <c r="S71" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="72" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R72" s="4">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="L33" s="1">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J34" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="L34" s="1">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J35" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L35" s="1">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="L36" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J37" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="L37" s="1">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="L38" s="1">
-        <v>3.4</v>
+      <c r="S72" s="1">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/myESC-Particle-DEV/saves/matlabTuning.xlsx
+++ b/myESC-Particle-DEV/saves/matlabTuning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\ESC\myESC-Particle-DEV\saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +286,8 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,19 +387,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.02</c:v>
@@ -406,22 +414,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.50115265109752427</c:v>
+                  <c:v>0.47675804529201427</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31932558436581937</c:v>
+                  <c:v>0.32731081434930609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24015369836695488</c:v>
+                  <c:v>0.2273037232349866</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17662227560139884</c:v>
+                  <c:v>0.20087581856896067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,16 +474,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
@@ -490,22 +498,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,8 +528,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165133728"/>
-        <c:axId val="165132552"/>
+        <c:axId val="554934792"/>
+        <c:axId val="554924208"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -552,19 +560,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.02</c:v>
@@ -579,22 +587,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.56</c:v>
+                  <c:v>2.4055</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.83</c:v>
+                  <c:v>2.6947999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.32</c:v>
+                  <c:v>3.1909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5599999999999996</c:v>
+                  <c:v>4.1128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,16 +643,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
@@ -659,22 +667,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.8</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,11 +697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165137256"/>
-        <c:axId val="165132944"/>
+        <c:axId val="554933616"/>
+        <c:axId val="554932832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165133728"/>
+        <c:axId val="554934792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -723,12 +731,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165132552"/>
+        <c:crossAx val="554924208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165132552"/>
+        <c:axId val="554924208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -764,12 +772,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165133728"/>
+        <c:crossAx val="554934792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165132944"/>
+        <c:axId val="554932832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -799,12 +807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165137256"/>
+        <c:crossAx val="554933616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165137256"/>
+        <c:axId val="554933616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165132944"/>
+        <c:crossAx val="554932832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -927,19 +935,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.02</c:v>
@@ -954,22 +962,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.49164208456243857</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44895393732603039</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.350655726208009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26148576210025365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22097982454201934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21056177882590751</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,8 +1076,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165138432"/>
-        <c:axId val="165138824"/>
+        <c:axId val="554934400"/>
+        <c:axId val="554931656"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1100,19 +1108,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.02</c:v>
@@ -1127,22 +1135,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.66</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.62</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,11 +1245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165134512"/>
-        <c:axId val="165139216"/>
+        <c:axId val="554929304"/>
+        <c:axId val="554930088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165138432"/>
+        <c:axId val="554934400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1271,12 +1279,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165138824"/>
+        <c:crossAx val="554931656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165138824"/>
+        <c:axId val="554931656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -1312,12 +1320,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165138432"/>
+        <c:crossAx val="554934400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165139216"/>
+        <c:axId val="554930088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1348,12 +1356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165134512"/>
+        <c:crossAx val="554929304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165134512"/>
+        <c:axId val="554929304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165139216"/>
+        <c:crossAx val="554930088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,7 +1499,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,22 +1511,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.50115265109752427</c:v>
+                  <c:v>0.47675804529201427</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31932558436581937</c:v>
+                  <c:v>0.32731081434930609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24015369836695488</c:v>
+                  <c:v>0.2273037232349866</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17662227560139884</c:v>
+                  <c:v>0.20087581856896067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,7 +1568,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>62</c:v>
@@ -1587,22 +1595,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,8 +1625,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165135688"/>
-        <c:axId val="165136080"/>
+        <c:axId val="554928912"/>
+        <c:axId val="554932440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1664,7 +1672,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,22 +1684,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.56</c:v>
+                  <c:v>2.4055</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.83</c:v>
+                  <c:v>2.6947999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.32</c:v>
+                  <c:v>3.1909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5599999999999996</c:v>
+                  <c:v>4.1128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,7 +1737,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>62</c:v>
@@ -1756,22 +1764,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.8</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,11 +1794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="513759536"/>
-        <c:axId val="163983512"/>
+        <c:axId val="554924992"/>
+        <c:axId val="554935184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165135688"/>
+        <c:axId val="554928912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1820,12 +1828,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165136080"/>
+        <c:crossAx val="554932440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165136080"/>
+        <c:axId val="554932440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -1861,12 +1869,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165135688"/>
+        <c:crossAx val="554928912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163983512"/>
+        <c:axId val="554935184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1896,12 +1904,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513759536"/>
+        <c:crossAx val="554924992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513759536"/>
+        <c:axId val="554924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163983512"/>
+        <c:crossAx val="554935184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2039,7 +2047,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,22 +2059,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.49164208456243857</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44895393732603039</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.350655726208009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26148576210025365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22097982454201934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21056177882590751</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,8 +2173,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="513761104"/>
-        <c:axId val="513761888"/>
+        <c:axId val="554925776"/>
+        <c:axId val="554932048"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2212,7 +2220,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,22 +2232,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.66</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.62</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,11 +2342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="513763456"/>
-        <c:axId val="513766984"/>
+        <c:axId val="554933224"/>
+        <c:axId val="554929696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="513761104"/>
+        <c:axId val="554925776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2368,12 +2376,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513761888"/>
+        <c:crossAx val="554932048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513761888"/>
+        <c:axId val="554932048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -2409,12 +2417,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513761104"/>
+        <c:crossAx val="554925776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513766984"/>
+        <c:axId val="554929696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2445,12 +2453,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513763456"/>
+        <c:crossAx val="554933224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513763456"/>
+        <c:axId val="554933224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513766984"/>
+        <c:crossAx val="554929696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3008,8 +3016,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3480,43 +3488,43 @@
         <v>20</v>
       </c>
       <c r="E12" s="18">
-        <v>0.35</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F12" s="3">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="G12" s="9">
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>2.56</v>
+        <v>2.4055</v>
       </c>
       <c r="I12" s="11">
-        <f>1/1.9954</f>
-        <v>0.50115265109752427</v>
+        <f>1/2.0975</f>
+        <v>0.47675804529201427</v>
       </c>
       <c r="J12" s="3">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="K12" s="3">
-        <v>17.100000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="L12" s="3">
-        <v>68.099999999999994</v>
+        <v>64.3</v>
       </c>
       <c r="M12" s="3">
-        <v>5.05</v>
+        <v>2.68</v>
       </c>
       <c r="N12" s="3">
-        <v>6.9</v>
+        <v>2.9</v>
       </c>
       <c r="O12" s="4">
         <f>I12</f>
-        <v>0.50115265109752427</v>
+        <v>0.47675804529201427</v>
       </c>
       <c r="P12" s="5">
         <f>H12</f>
-        <v>2.56</v>
+        <v>2.4055</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
@@ -3535,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="18">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="9">
@@ -3573,43 +3581,43 @@
         <v>20</v>
       </c>
       <c r="E14" s="18">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="F14" s="3">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="G14" s="9">
         <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>2.83</v>
+        <v>2.6947999999999999</v>
       </c>
       <c r="I14" s="11">
-        <f>1/3.1316</f>
-        <v>0.31932558436581937</v>
+        <f>1/3.0552</f>
+        <v>0.32731081434930609</v>
       </c>
       <c r="J14" s="3">
-        <v>13.3</v>
+        <v>11.8</v>
       </c>
       <c r="K14" s="3">
-        <v>9.9</v>
+        <v>9.17</v>
       </c>
       <c r="L14" s="3">
-        <v>65.5</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M14" s="3">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="N14" s="3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>0.31932558436581937</v>
+        <v>0.32731081434930609</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="3"/>
-        <v>2.83</v>
+        <v>2.6947999999999999</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
@@ -3628,7 +3636,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="18">
-        <v>0.1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F15" s="3">
         <v>0.35</v>
@@ -3637,34 +3645,34 @@
         <v>2</v>
       </c>
       <c r="H15" s="2">
-        <v>3.32</v>
+        <v>3.1909999999999998</v>
       </c>
       <c r="I15" s="11">
-        <f>1/4.164</f>
-        <v>0.24015369836695488</v>
+        <f>1/4.3994</f>
+        <v>0.2273037232349866</v>
       </c>
       <c r="J15" s="3">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="K15" s="3">
-        <v>11.7</v>
+        <v>10.9</v>
       </c>
       <c r="L15" s="3">
-        <v>67.400000000000006</v>
+        <v>67</v>
       </c>
       <c r="M15" s="3">
-        <v>3.66</v>
+        <v>3.48</v>
       </c>
       <c r="N15" s="3">
-        <v>4.46</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="2"/>
-        <v>0.24015369836695488</v>
+        <v>0.2273037232349866</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="3"/>
-        <v>3.32</v>
+        <v>3.1909999999999998</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
@@ -3683,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="18">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="9">
@@ -3712,7 +3720,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="9">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>20</v>
@@ -3724,40 +3732,40 @@
         <v>0.02</v>
       </c>
       <c r="F17" s="3">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G17" s="9">
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>4.5599999999999996</v>
+        <v>4.1128</v>
       </c>
       <c r="I17" s="11">
-        <f>1/5.6618</f>
-        <v>0.17662227560139884</v>
+        <f>1/4.9782</f>
+        <v>0.20087581856896067</v>
       </c>
       <c r="J17" s="3">
-        <v>15.2</v>
+        <v>12.6</v>
       </c>
       <c r="K17" s="3">
-        <v>18.7</v>
+        <v>15.8</v>
       </c>
       <c r="L17" s="3">
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
       <c r="M17" s="3">
-        <v>4.83</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N17" s="3">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="2"/>
-        <v>0.17662227560139884</v>
+        <v>0.20087581856896067</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="3"/>
-        <v>4.5599999999999996</v>
+        <v>4.1128</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
@@ -3832,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="18">
-        <v>0.35</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F21" s="3">
         <v>0.45600000000000002</v>
@@ -3840,33 +3848,20 @@
       <c r="G21" s="9">
         <v>0.8</v>
       </c>
-      <c r="H21" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="I21" s="11">
-        <f>1/2.034</f>
-        <v>0.49164208456243857</v>
-      </c>
-      <c r="J21" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="K21" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L21" s="3">
-        <v>48.9</v>
-      </c>
-      <c r="M21" s="3">
-        <v>4.2</v>
-      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="7"/>
       <c r="O21" s="4">
         <f>I21</f>
-        <v>0.49164208456243857</v>
+        <v>0</v>
       </c>
       <c r="P21" s="5">
         <f>H21</f>
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5"/>
     </row>
@@ -3884,7 +3879,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="18">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F22" s="3">
         <v>0.5</v>
@@ -3892,33 +3887,20 @@
       <c r="G22" s="9">
         <v>0.78</v>
       </c>
-      <c r="H22" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="I22" s="11">
-        <f>1/2.2274</f>
-        <v>0.44895393732603039</v>
-      </c>
-      <c r="J22" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="K22" s="2">
-        <v>9.44</v>
-      </c>
-      <c r="L22" s="2">
-        <v>51.5</v>
-      </c>
-      <c r="M22" s="2">
-        <v>4.1399999999999997</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="12"/>
       <c r="O22" s="4">
         <f t="shared" ref="O22:O26" si="4">I22</f>
-        <v>0.44895393732603039</v>
+        <v>0</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" ref="P22:P26" si="5">H22</f>
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5"/>
     </row>
@@ -3936,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="18">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="F23" s="3">
         <v>0.6</v>
@@ -3944,33 +3926,20 @@
       <c r="G23" s="9">
         <v>0.71</v>
       </c>
-      <c r="H23" s="2">
-        <v>3.49</v>
-      </c>
-      <c r="I23" s="11">
-        <f>1/2.8518</f>
-        <v>0.350655726208009</v>
-      </c>
-      <c r="J23" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>57.7</v>
-      </c>
-      <c r="M23" s="3">
-        <v>4.04</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="7"/>
       <c r="O23" s="4">
         <f t="shared" si="4"/>
-        <v>0.350655726208009</v>
+        <v>0</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="5"/>
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5"/>
     </row>
@@ -3988,7 +3957,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="18">
-        <v>0.1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F24" s="3">
         <v>0.746</v>
@@ -3996,33 +3965,20 @@
       <c r="G24" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H24" s="2">
-        <v>3.62</v>
-      </c>
-      <c r="I24" s="11">
-        <f>1/3.8243</f>
-        <v>0.26148576210025365</v>
-      </c>
-      <c r="J24" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="K24" s="3">
-        <v>12</v>
-      </c>
-      <c r="L24" s="3">
-        <v>65</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4.2</v>
-      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="7"/>
       <c r="O24" s="4">
         <f t="shared" si="4"/>
-        <v>0.26148576210025365</v>
+        <v>0</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="5"/>
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="5"/>
     </row>
@@ -4040,7 +3996,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="18">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F25" s="3">
         <v>0.85</v>
@@ -4048,33 +4004,20 @@
       <c r="G25" s="9">
         <v>0.45</v>
       </c>
-      <c r="H25" s="2">
-        <v>4.13</v>
-      </c>
-      <c r="I25" s="11">
-        <f>1/4.5253</f>
-        <v>0.22097982454201934</v>
-      </c>
-      <c r="J25" s="2">
-        <v>12.3</v>
-      </c>
-      <c r="K25" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="L25" s="2">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="M25" s="2">
-        <v>4.8</v>
-      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="7"/>
       <c r="O25" s="4">
         <f t="shared" si="4"/>
-        <v>0.22097982454201934</v>
+        <v>0</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="5"/>
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5"/>
     </row>
@@ -4083,7 +4026,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="9">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>20</v>
@@ -4100,33 +4043,20 @@
       <c r="G26" s="9">
         <v>0.35</v>
       </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="11">
-        <f>1/4.7492</f>
-        <v>0.21056177882590751</v>
-      </c>
-      <c r="J26" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="L26" s="3">
-        <v>67.8</v>
-      </c>
-      <c r="M26" s="3">
-        <v>5.84</v>
-      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="7"/>
       <c r="O26" s="4">
         <f t="shared" si="4"/>
-        <v>0.21056177882590751</v>
+        <v>0</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5"/>
     </row>
@@ -4168,19 +4098,19 @@
       </c>
       <c r="C29" s="6">
         <f>Q43</f>
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D29" s="6">
         <f>Q44</f>
-        <v>0.1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E29" s="6">
         <f>Q45</f>
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="F29" s="6">
         <f>Q46</f>
-        <v>0.35</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="G29" s="6">
         <f>Q47</f>
@@ -4196,27 +4126,27 @@
       </c>
       <c r="B30" s="6">
         <f>S42</f>
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C30" s="6">
         <f>S43</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="D30" s="6">
         <f>S44</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E30" s="6">
         <f>S45</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F30" s="6">
         <f>S46</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G30" s="6">
         <f>S47</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S30" s="19"/>
       <c r="T30" s="20"/>
@@ -4228,27 +4158,27 @@
       </c>
       <c r="B31" s="23">
         <f>R42</f>
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C31" s="23">
         <f>R43</f>
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="D31" s="23">
         <f>R44</f>
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E31" s="23">
         <f>R45</f>
-        <v>0.32</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F31" s="23">
         <f>R46</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G31" s="23">
         <f>R47</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
@@ -4285,7 +4215,7 @@
       </c>
       <c r="G33" s="6">
         <f>P42</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S33" s="19"/>
       <c r="T33" s="20"/>
@@ -4297,27 +4227,27 @@
       </c>
       <c r="B34" s="6">
         <f>S47</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C34" s="6">
         <f>S46</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D34" s="6">
         <f>S45</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="E34" s="6">
         <f>S44</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F34" s="6">
         <f>S43</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="G34" s="6">
         <f>S42</f>
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S34" s="19"/>
       <c r="T34" s="20"/>
@@ -4329,27 +4259,27 @@
       </c>
       <c r="B35" s="23">
         <f>R47</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C35" s="23">
         <f>R46</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D35" s="23">
         <f>R45</f>
-        <v>0.32</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E35" s="23">
         <f>R44</f>
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F35" s="23">
         <f>R43</f>
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G35" s="23">
         <f>R42</f>
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
@@ -4413,16 +4343,16 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P42" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="4">
         <v>0</v>
       </c>
       <c r="R42" s="4">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="S42" s="1">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -4430,13 +4360,13 @@
         <v>62</v>
       </c>
       <c r="Q43" s="4">
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="R43" s="4">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="S43" s="1">
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -4444,13 +4374,13 @@
         <v>47.5</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R44" s="4">
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="S44" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -4458,13 +4388,13 @@
         <v>25</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="R45" s="4">
-        <v>0.32</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="S45" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -4472,13 +4402,13 @@
         <v>16</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.35</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R46" s="4">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="S46" s="1">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -4489,10 +4419,10 @@
         <v>0.5</v>
       </c>
       <c r="R47" s="4">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="S47" s="1">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
@@ -4519,8 +4449,8 @@
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V52" s="18">
-        <v>0.34599999999999997</v>
+      <c r="V52" s="24">
+        <v>0.34399999999999997</v>
       </c>
       <c r="W52" s="22">
         <v>0.3917732370086745</v>
@@ -4533,8 +4463,8 @@
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V53" s="18">
-        <v>0.28199999999999997</v>
+      <c r="V53" s="24">
+        <v>0.27100000000000002</v>
       </c>
       <c r="W53" s="22">
         <v>0.27537020278635105</v>
@@ -4571,8 +4501,8 @@
         <f>Q72</f>
         <v>0.5</v>
       </c>
-      <c r="V54" s="18">
-        <v>0.2</v>
+      <c r="V54" s="24">
+        <v>0.185</v>
       </c>
       <c r="W54" s="22">
         <v>0.19355265092014706</v>
@@ -4609,8 +4539,8 @@
         <f>S72</f>
         <v>3.8</v>
       </c>
-      <c r="V55" s="18">
-        <v>0.14299999999999999</v>
+      <c r="V55" s="24">
+        <v>0.121</v>
       </c>
       <c r="W55" s="22">
         <v>0.10878935110598625</v>
@@ -4647,8 +4577,8 @@
         <f>R72</f>
         <v>0.48799999999999999</v>
       </c>
-      <c r="V56" s="18">
-        <v>0.11</v>
+      <c r="V56" s="24">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="W56" s="22">
         <v>7.6466034034855926E-2</v>
@@ -4658,8 +4588,8 @@
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V57" s="18">
-        <v>8.5999999999999993E-2</v>
+      <c r="V57" s="24">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="W57" s="22">
         <v>6.4739856241990537E-2</v>
@@ -4696,8 +4626,8 @@
         <f>P67</f>
         <v>80</v>
       </c>
-      <c r="V58" s="18">
-        <v>7.3999999999999996E-2</v>
+      <c r="V58" s="24">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="W58" s="22">
         <v>6.0849785914015388E-2</v>
@@ -4734,8 +4664,8 @@
         <f>S67</f>
         <v>5.5</v>
       </c>
-      <c r="V59" s="18">
-        <v>6.7000000000000004E-2</v>
+      <c r="V59" s="24">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="W59" s="22">
         <v>5.5689239628374895E-2</v>
@@ -4772,8 +4702,8 @@
         <f>R67</f>
         <v>0.21</v>
       </c>
-      <c r="V60" s="18">
-        <v>4.5999999999999999E-2</v>
+      <c r="V60" s="25">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="W60" s="22">
         <v>4.6085623567052196E-2</v>

--- a/myESC-Particle-DEV/saves/matlabTuning.xlsx
+++ b/myESC-Particle-DEV/saves/matlabTuning.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19656" windowHeight="8388"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19650" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Retune 20161102" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="49">
   <si>
     <t>throttle, deg</t>
   </si>
@@ -145,6 +140,27 @@
   </si>
   <si>
     <t>pcnt, %</t>
+  </si>
+  <si>
+    <t>tau/taut</t>
+  </si>
+  <si>
+    <t>tau*tauT</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>E.TauE=0.1, tldF=0.15,tlgF=0.03, Step</t>
+  </si>
+  <si>
+    <t>Entries for potESC.ino Arduino   FIXED LEAD</t>
+  </si>
+  <si>
+    <t>Design LG FIXED, r/s</t>
+  </si>
+  <si>
+    <t>Design tld FIXED, s</t>
   </si>
 </sst>
 </file>
@@ -441,7 +457,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$R$41</c:f>
+              <c:f>'Retune 20161102'!$R$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -466,7 +482,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$Q$42:$Q$47</c:f>
+              <c:f>'Retune 20161102'!$Q$52:$Q$57</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -493,7 +509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$R$42:$R$47</c:f>
+              <c:f>'Retune 20161102'!$R$52:$R$57</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -528,8 +544,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554934792"/>
-        <c:axId val="554924208"/>
+        <c:axId val="215125376"/>
+        <c:axId val="215135744"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -614,7 +630,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$S$41</c:f>
+              <c:f>'Retune 20161102'!$S$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -635,7 +651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$Q$42:$Q$47</c:f>
+              <c:f>'Retune 20161102'!$Q$52:$Q$57</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -662,7 +678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$S$42:$S$47</c:f>
+              <c:f>'Retune 20161102'!$S$52:$S$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -697,11 +713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554933616"/>
-        <c:axId val="554932832"/>
+        <c:axId val="215152128"/>
+        <c:axId val="215137664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="554934792"/>
+        <c:axId val="215125376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -731,12 +747,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554924208"/>
+        <c:crossAx val="215135744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554924208"/>
+        <c:axId val="215135744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -772,12 +788,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554934792"/>
+        <c:crossAx val="215125376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554932832"/>
+        <c:axId val="215137664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -807,12 +823,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554933616"/>
+        <c:crossAx val="215152128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554933616"/>
+        <c:axId val="215152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554932832"/>
+        <c:crossAx val="215137664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -914,7 +930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$O$20</c:f>
+              <c:f>'Retune 20161102'!$O$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -930,7 +946,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$E$21:$E$26</c:f>
+              <c:f>'Retune 20161102'!$E$31:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -957,7 +973,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$O$21:$O$26</c:f>
+              <c:f>'Retune 20161102'!$O$31:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -989,7 +1005,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$R$66</c:f>
+              <c:f>'Retune 20161102'!$R$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1014,7 +1030,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$Q$67:$Q$72</c:f>
+              <c:f>'Retune 20161102'!$Q$106:$Q$111</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1041,7 +1057,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$R$67:$R$72</c:f>
+              <c:f>'Retune 20161102'!$R$106:$R$111</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1076,8 +1092,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554934400"/>
-        <c:axId val="554931656"/>
+        <c:axId val="215200896"/>
+        <c:axId val="215202816"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1087,7 +1103,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$P$20</c:f>
+              <c:f>'Retune 20161102'!$P$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1103,7 +1119,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$E$21:$E$26</c:f>
+              <c:f>'Retune 20161102'!$E$31:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1130,7 +1146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$P$21:$P$26</c:f>
+              <c:f>'Retune 20161102'!$P$31:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1162,7 +1178,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$S$66</c:f>
+              <c:f>'Retune 20161102'!$S$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1199,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$Q$67:$Q$72</c:f>
+              <c:f>'Retune 20161102'!$Q$106:$Q$111</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1210,7 +1226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$S$67:$S$72</c:f>
+              <c:f>'Retune 20161102'!$S$106:$S$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1245,11 +1261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554929304"/>
-        <c:axId val="554930088"/>
+        <c:axId val="215206912"/>
+        <c:axId val="215204992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="554934400"/>
+        <c:axId val="215200896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1279,12 +1295,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554931656"/>
+        <c:crossAx val="215202816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554931656"/>
+        <c:axId val="215202816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -1320,12 +1336,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554934400"/>
+        <c:crossAx val="215200896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554930088"/>
+        <c:axId val="215204992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1356,12 +1372,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554929304"/>
+        <c:crossAx val="215206912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554929304"/>
+        <c:axId val="215206912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554930088"/>
+        <c:crossAx val="215204992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1538,7 +1554,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$R$41</c:f>
+              <c:f>'Retune 20161102'!$R$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1563,7 +1579,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$P$42:$P$47</c:f>
+              <c:f>'Retune 20161102'!$P$52:$P$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1590,7 +1606,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$R$42:$R$47</c:f>
+              <c:f>'Retune 20161102'!$R$52:$R$57</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1625,8 +1641,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554928912"/>
-        <c:axId val="554932440"/>
+        <c:axId val="215263872"/>
+        <c:axId val="215270144"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1711,7 +1727,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$S$41</c:f>
+              <c:f>'Retune 20161102'!$S$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1732,7 +1748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$P$42:$P$47</c:f>
+              <c:f>'Retune 20161102'!$P$52:$P$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1759,7 +1775,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$S$42:$S$47</c:f>
+              <c:f>'Retune 20161102'!$S$52:$S$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1794,11 +1810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554924992"/>
-        <c:axId val="554935184"/>
+        <c:axId val="215278336"/>
+        <c:axId val="215272064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="554928912"/>
+        <c:axId val="215263872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1828,12 +1844,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554932440"/>
+        <c:crossAx val="215270144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554932440"/>
+        <c:axId val="215270144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -1869,12 +1885,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554928912"/>
+        <c:crossAx val="215263872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554935184"/>
+        <c:axId val="215272064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1904,12 +1920,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554924992"/>
+        <c:crossAx val="215278336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554924992"/>
+        <c:axId val="215278336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554935184"/>
+        <c:crossAx val="215272064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2011,7 +2027,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$O$20</c:f>
+              <c:f>'Retune 20161102'!$O$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2027,7 +2043,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$B$21:$B$26</c:f>
+              <c:f>'Retune 20161102'!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2054,7 +2070,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$O$21:$O$26</c:f>
+              <c:f>'Retune 20161102'!$O$31:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2086,7 +2102,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$R$66</c:f>
+              <c:f>'Retune 20161102'!$R$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2111,7 +2127,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$P$67:$P$72</c:f>
+              <c:f>'Retune 20161102'!$P$106:$P$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2138,7 +2154,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$R$67:$R$72</c:f>
+              <c:f>'Retune 20161102'!$R$106:$R$111</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2173,8 +2189,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554925776"/>
-        <c:axId val="554932048"/>
+        <c:axId val="215318912"/>
+        <c:axId val="215320832"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2184,7 +2200,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$P$20</c:f>
+              <c:f>'Retune 20161102'!$P$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2200,7 +2216,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$B$21:$B$26</c:f>
+              <c:f>'Retune 20161102'!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2227,7 +2243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$P$21:$P$26</c:f>
+              <c:f>'Retune 20161102'!$P$31:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2259,7 +2275,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Retune 20161102'!$S$66</c:f>
+              <c:f>'Retune 20161102'!$S$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2280,7 +2296,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$P$67:$P$72</c:f>
+              <c:f>'Retune 20161102'!$P$106:$P$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2307,7 +2323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Retune 20161102'!$S$67:$S$72</c:f>
+              <c:f>'Retune 20161102'!$S$106:$S$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2342,11 +2358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554933224"/>
-        <c:axId val="554929696"/>
+        <c:axId val="215329024"/>
+        <c:axId val="215327104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="554925776"/>
+        <c:axId val="215318912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2376,12 +2392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554932048"/>
+        <c:crossAx val="215320832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554932048"/>
+        <c:axId val="215320832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -2417,12 +2433,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554925776"/>
+        <c:crossAx val="215318912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554929696"/>
+        <c:axId val="215327104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2453,12 +2469,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554933224"/>
+        <c:crossAx val="215329024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554933224"/>
+        <c:axId val="215329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554929696"/>
+        <c:crossAx val="215327104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2499,19 +2515,1120 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scheduled Gains Reference FIXED LEAD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6493000874890633E-2"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10716907261592301"/>
+          <c:y val="0.15788203557888597"/>
+          <c:w val="0.58013473315835518"/>
+          <c:h val="0.69278142315543889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design tld FIXED, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$O$21:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.42889003259564251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24201940995667853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1380548077586802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2798812175204165E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$R$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control tld</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$Q$78:$Q$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$R$78:$R$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="115506176"/>
+        <c:axId val="116655232"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design LG FIXED, r/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$21:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8174999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1486000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0128000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$S$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control LG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$Q$78:$Q$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$S$78:$S$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116667520"/>
+        <c:axId val="116657152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="115506176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TauT, s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116655232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116655232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TLD,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115506176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116657152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LG, r/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116667520"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116667520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116657152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75256867891513546"/>
+          <c:y val="5.0158209390492862E-2"/>
+          <c:w val="0.23909798775153107"/>
+          <c:h val="0.22838728492271798"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scheduled Gains Reference FIXED</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LEAD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6493000874890633E-2"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10716907261592301"/>
+          <c:y val="0.15788203557888597"/>
+          <c:w val="0.58013473315835518"/>
+          <c:h val="0.69278142315543889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design tld FIXED, s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$O$21:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.42889003259564251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24201940995667853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1380548077586802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2798812175204165E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$R$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control tld</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$78:$P$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$R$78:$R$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116728576"/>
+        <c:axId val="116730496"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design LG FIXED, r/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$21:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8174999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1486000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0128000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Retune 20161102'!$S$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control LG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$P$78:$P$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Retune 20161102'!$S$78:$S$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116750976"/>
+        <c:axId val="116749056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116728576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nt, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116730496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116730496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TLD,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116728576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116749056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LG, r/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116750976"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116750976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116749056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75256867891513546"/>
+          <c:y val="5.0158209390492862E-2"/>
+          <c:w val="0.23909798775153107"/>
+          <c:h val="0.22838728492271798"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2537,13 +3654,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2569,13 +3686,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2601,13 +3718,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2633,13 +3750,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2680,13 +3797,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2721,6 +3838,70 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2769,7 +3950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2804,7 +3985,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3014,34 +4195,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -3051,7 +4232,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3101,7 +4282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +4336,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +4390,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -3253,7 +4434,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -3307,7 +4488,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +4542,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -3415,7 +4596,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -3424,7 +4605,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3473,8 +4654,20 @@
       <c r="P11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -3526,10 +4719,24 @@
         <f>H12</f>
         <v>2.4055</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q12" s="4">
+        <f>I12*H12</f>
+        <v>1.1468414779499403</v>
+      </c>
+      <c r="R12" s="5">
+        <f>F12/4</f>
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="S12" s="1">
+        <f>R12/E12</f>
+        <v>0.38517441860465124</v>
+      </c>
+      <c r="T12" s="1">
+        <f>R12*E12</f>
+        <v>4.5579999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -3567,7 +4774,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -3619,10 +4826,24 @@
         <f t="shared" si="3"/>
         <v>2.6947999999999999</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q14" s="4">
+        <f t="shared" ref="Q14:Q17" si="4">I14*H14</f>
+        <v>0.88203718250851004</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" ref="R14:R15" si="5">F14/4</f>
+        <v>0.11</v>
+      </c>
+      <c r="S14" s="1">
+        <f>R14/E14</f>
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" ref="T14:T17" si="6">R14*E14</f>
+        <v>2.035E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3674,10 +4895,24 @@
         <f t="shared" si="3"/>
         <v>3.1909999999999998</v>
       </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.72532618084284217</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="5"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <f>R15/E15</f>
+        <v>1.0294117647058822</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="6"/>
+        <v>7.4374999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -3715,7 +4950,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -3767,19 +5002,36 @@
         <f t="shared" si="3"/>
         <v>4.1128</v>
       </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.82616206661042146</v>
+      </c>
+      <c r="R17" s="5">
+        <f>F17/4</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="S17" s="1">
+        <f>R17/E17</f>
+        <v>2.75</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3796,10 +5048,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -3819,14 +5071,29 @@
       <c r="M20" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N20" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O20" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -3843,29 +5110,59 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="F21" s="3">
-        <v>0.45600000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="G21" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="I21" s="11">
+        <f>1/2.3316</f>
+        <v>0.42889003259564251</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="K21" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="L21" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5.9</v>
+      </c>
       <c r="O21" s="4">
         <f>I21</f>
-        <v>0</v>
+        <v>0.42889003259564251</v>
       </c>
       <c r="P21" s="5">
         <f>H21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.6</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>I21*H21</f>
+        <v>1.5440041173443131</v>
+      </c>
+      <c r="R21" s="5">
+        <f>F21/4</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <f>R21/E21</f>
+        <v>0.19622093023255816</v>
+      </c>
+      <c r="T21" s="1">
+        <f>R21*E21</f>
+        <v>2.3220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -3881,30 +5178,29 @@
       <c r="E22" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="4">
-        <f t="shared" ref="O22:O26" si="4">I22</f>
+        <f t="shared" ref="O22:O26" si="7">I22</f>
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" ref="P22:P26" si="5">H22</f>
+        <f t="shared" ref="P22:P26" si="8">H22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
@@ -3921,29 +5217,59 @@
         <v>0.185</v>
       </c>
       <c r="F23" s="3">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="G23" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.8174999999999999</v>
+      </c>
+      <c r="I23" s="11">
+        <f>1/4.1319</f>
+        <v>0.24201940995667853</v>
+      </c>
+      <c r="J23" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="N23" s="3">
+        <v>6.38</v>
+      </c>
       <c r="O23" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.24201940995667853</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>3.8174999999999999</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" ref="Q23:Q26" si="9">I23*H23</f>
+        <v>0.92390909750962025</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" ref="R23:R24" si="10">F23/4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <f>R23/E23</f>
+        <v>0.33783783783783783</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" ref="T23:T26" si="11">R23*E23</f>
+        <v>1.15625E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3960,29 +5286,59 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F24" s="3">
-        <v>0.746</v>
+        <v>0.22</v>
       </c>
       <c r="G24" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.1486000000000001</v>
+      </c>
+      <c r="I24" s="11">
+        <f>1/7.2435</f>
+        <v>0.1380548077586802</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="K24" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="L24" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7.26</v>
+      </c>
       <c r="O24" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.1380548077586802</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>4.1486000000000001</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="9"/>
+        <v>0.5727341754676607</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="10"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="S24" s="1">
+        <f>R24/E24</f>
+        <v>0.64705882352941169</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="11"/>
+        <v>4.6750000000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
@@ -3998,30 +5354,29 @@
       <c r="E25" s="18">
         <v>0.04</v>
       </c>
-      <c r="F25" s="3">
-        <v>0.85</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
@@ -4038,783 +5393,1431 @@
         <v>0.02</v>
       </c>
       <c r="F26" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5.0128000000000004</v>
+      </c>
+      <c r="I26" s="11">
+        <f>1/10.776</f>
+        <v>9.2798812175204165E-2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="N26" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="7"/>
+        <v>9.2798812175204165E-2</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="8"/>
+        <v>5.0128000000000004</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" ref="Q26:Q27" si="12">I26*H26</f>
+        <v>0.46518188567186347</v>
+      </c>
+      <c r="R26" s="5">
+        <f>F26/4</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S26" s="1">
+        <f>R26/E26</f>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" ref="T26:T27" si="13">R26*E26</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="9">
+        <v>16</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="4">
+        <f>I31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <f>H31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9">
+        <v>19</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="4">
+        <f t="shared" ref="O32:O36" si="14">I32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" ref="P32:P36" si="15">H32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="9">
+        <v>25</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0.185</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="9">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="18">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="9">
+        <v>61</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="9">
+        <v>70</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F36" s="3">
         <v>0.94</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G36" s="9">
         <v>0.35</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="4">
-        <f t="shared" si="4"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="4">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P26" s="5">
-        <f t="shared" si="5"/>
+      <c r="P36" s="5">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="6">
-        <f>Q42</f>
+      <c r="B39" s="6">
+        <f>Q52</f>
         <v>0</v>
       </c>
-      <c r="C29" s="6">
-        <f>Q43</f>
+      <c r="C39" s="6">
+        <f>Q53</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D29" s="6">
-        <f>Q44</f>
+      <c r="D39" s="6">
+        <f>Q54</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E29" s="6">
-        <f>Q45</f>
+      <c r="E39" s="6">
+        <f>Q55</f>
         <v>0.185</v>
       </c>
-      <c r="F29" s="6">
-        <f>Q46</f>
+      <c r="F39" s="6">
+        <f>Q56</f>
         <v>0.34399999999999997</v>
       </c>
-      <c r="G29" s="6">
-        <f>Q47</f>
+      <c r="G39" s="6">
+        <f>Q57</f>
         <v>0.5</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="6">
-        <f>S42</f>
+      <c r="B40" s="6">
+        <f>S52</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="C30" s="6">
-        <f>S43</f>
+      <c r="C40" s="6">
+        <f>S53</f>
         <v>3.75</v>
       </c>
-      <c r="D30" s="6">
-        <f>S44</f>
+      <c r="D40" s="6">
+        <f>S54</f>
         <v>3.2</v>
       </c>
-      <c r="E30" s="6">
-        <f>S45</f>
+      <c r="E40" s="6">
+        <f>S55</f>
         <v>2.7</v>
       </c>
-      <c r="F30" s="6">
-        <f>S46</f>
+      <c r="F40" s="6">
+        <f>S56</f>
         <v>2.4</v>
       </c>
-      <c r="G30" s="6">
-        <f>S47</f>
+      <c r="G40" s="6">
+        <f>S57</f>
         <v>2.4</v>
       </c>
-      <c r="S30" s="19"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="S40" s="19"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="23">
-        <f>R42</f>
+      <c r="B41" s="23">
+        <f>R52</f>
         <v>0.2</v>
       </c>
-      <c r="C31" s="23">
-        <f>R43</f>
+      <c r="C41" s="23">
+        <f>R53</f>
         <v>0.2</v>
       </c>
-      <c r="D31" s="23">
-        <f>R44</f>
+      <c r="D41" s="23">
+        <f>R54</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="E31" s="23">
-        <f>R45</f>
+      <c r="E41" s="23">
+        <f>R55</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="F31" s="23">
-        <f>R46</f>
+      <c r="F41" s="23">
+        <f>R56</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="G31" s="23">
-        <f>R47</f>
+      <c r="G41" s="23">
+        <f>R57</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="S31" s="19"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="S32" s="19"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="7"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="S41" s="19"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="S42" s="19"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="6">
-        <f>P47</f>
+      <c r="B43" s="6">
+        <f>P57</f>
         <v>0</v>
       </c>
-      <c r="C33" s="6">
-        <f>P46</f>
+      <c r="C43" s="6">
+        <f>P56</f>
         <v>16</v>
       </c>
-      <c r="D33" s="6">
-        <f>P45</f>
+      <c r="D43" s="6">
+        <f>P55</f>
         <v>25</v>
       </c>
-      <c r="E33" s="6">
-        <f>P44</f>
+      <c r="E43" s="6">
+        <f>P54</f>
         <v>47.5</v>
       </c>
-      <c r="F33" s="6">
-        <f>P43</f>
+      <c r="F43" s="6">
+        <f>P53</f>
         <v>62</v>
       </c>
-      <c r="G33" s="6">
-        <f>P42</f>
+      <c r="G43" s="6">
+        <f>P52</f>
         <v>78</v>
       </c>
-      <c r="S33" s="19"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="7"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="S43" s="19"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="6">
-        <f>S47</f>
+      <c r="B44" s="6">
+        <f>S57</f>
         <v>2.4</v>
       </c>
-      <c r="C34" s="6">
-        <f>S46</f>
+      <c r="C44" s="6">
+        <f>S56</f>
         <v>2.4</v>
       </c>
-      <c r="D34" s="6">
-        <f>S45</f>
+      <c r="D44" s="6">
+        <f>S55</f>
         <v>2.7</v>
       </c>
-      <c r="E34" s="6">
-        <f>S44</f>
+      <c r="E44" s="6">
+        <f>S54</f>
         <v>3.2</v>
       </c>
-      <c r="F34" s="6">
-        <f>S43</f>
+      <c r="F44" s="6">
+        <f>S53</f>
         <v>3.75</v>
       </c>
-      <c r="G34" s="6">
-        <f>S42</f>
+      <c r="G44" s="6">
+        <f>S52</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="S34" s="19"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="S44" s="19"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="23">
-        <f>R47</f>
+      <c r="B45" s="23">
+        <f>R57</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="C35" s="23">
-        <f>R46</f>
+      <c r="C45" s="23">
+        <f>R56</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D35" s="23">
-        <f>R45</f>
+      <c r="D45" s="23">
+        <f>R55</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="E35" s="23">
-        <f>R44</f>
+      <c r="E45" s="23">
+        <f>R54</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="F35" s="23">
-        <f>R43</f>
+      <c r="F45" s="23">
+        <f>R53</f>
         <v>0.2</v>
       </c>
-      <c r="G35" s="23">
-        <f>R42</f>
+      <c r="G45" s="23">
+        <f>R52</f>
         <v>0.2</v>
       </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="S36" s="19"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="S37" s="19"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="7"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P40" s="17" t="s">
+      <c r="S45" s="19"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="S46" s="19"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="S47" s="19"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P50" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P41" s="9" t="s">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P51" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S51" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P42" s="9">
+    <row r="52" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P52" s="9">
         <v>78</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q52" s="4">
         <v>0</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R52" s="4">
         <v>0.2</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S52" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P43" s="9">
+    <row r="53" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P53" s="9">
         <v>62</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q53" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R53" s="4">
         <v>0.2</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S53" s="1">
         <v>3.75</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P44" s="9">
+    <row r="54" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P54" s="9">
         <v>47.5</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q54" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R54" s="4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S54" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P45" s="9">
+    <row r="55" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P55" s="9">
         <v>25</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q55" s="4">
         <v>0.185</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R55" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S55" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P46" s="9">
+    <row r="56" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P56" s="9">
         <v>16</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q56" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R56" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S56" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P47" s="9">
+    <row r="57" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P57" s="9">
         <v>0</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q57" s="4">
         <v>0.5</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R57" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S57" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V49" s="8" t="s">
+    <row r="59" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="V59" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V50" s="17" t="s">
+    <row r="60" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="V60" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V51" s="9" t="s">
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="V61" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W51" s="21" t="s">
+      <c r="W61" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="X51" s="9" t="s">
+      <c r="X61" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V52" s="24">
+    <row r="62" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="V62" s="24">
         <v>0.34399999999999997</v>
       </c>
-      <c r="W52" s="22">
+      <c r="W62" s="22">
         <v>0.3917732370086745</v>
       </c>
-      <c r="X52" s="9">
+      <c r="X62" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="63" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="V63" s="24">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="W63" s="22">
+        <v>0.27537020278635105</v>
+      </c>
+      <c r="X63" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S64" s="7"/>
+      <c r="V64" s="24">
+        <v>0.185</v>
+      </c>
+      <c r="W64" s="22">
+        <v>0.19355265092014706</v>
+      </c>
+      <c r="X64" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="6">
+        <f>Q78</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="6">
+        <f>Q79</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D65" s="6">
+        <f>Q80</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E65" s="6">
+        <f>Q81</f>
+        <v>0.185</v>
+      </c>
+      <c r="F65" s="6">
+        <f>Q82</f>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G65" s="6">
+        <f>Q83</f>
+        <v>0.5</v>
+      </c>
+      <c r="S65" s="7"/>
+      <c r="V65" s="24">
+        <v>0.121</v>
+      </c>
+      <c r="W65" s="22">
+        <v>0.10878935110598625</v>
+      </c>
+      <c r="X65" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="6">
+        <f>S78</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="6">
+        <f>S79</f>
+        <v>5</v>
+      </c>
+      <c r="D66" s="6">
+        <f>S80</f>
+        <v>4.05</v>
+      </c>
+      <c r="E66" s="6">
+        <f>S81</f>
+        <v>3.75</v>
+      </c>
+      <c r="F66" s="6">
+        <f>S82</f>
+        <v>3.6</v>
+      </c>
+      <c r="G66" s="6">
+        <f>S83</f>
+        <v>3.6</v>
+      </c>
+      <c r="S66" s="19"/>
+      <c r="V66" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="W66" s="22">
+        <v>7.6466034034855926E-2</v>
+      </c>
+      <c r="X66" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="23">
+        <f>R78</f>
+        <v>0.09</v>
+      </c>
+      <c r="C67" s="23">
+        <f>R79</f>
+        <v>0.09</v>
+      </c>
+      <c r="D67" s="23">
+        <f>R80</f>
+        <v>0.125</v>
+      </c>
+      <c r="E67" s="23">
+        <f>R81</f>
+        <v>0.24</v>
+      </c>
+      <c r="F67" s="23">
+        <f>R82</f>
+        <v>0.42</v>
+      </c>
+      <c r="G67" s="23">
+        <f>R83</f>
+        <v>0.42</v>
+      </c>
+      <c r="S67" s="19"/>
+      <c r="V67" s="24">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="W67" s="22">
+        <v>6.4739856241990537E-2</v>
+      </c>
+      <c r="X67" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S68" s="19"/>
+      <c r="V68" s="24">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W68" s="22">
+        <v>6.0849785914015388E-2</v>
+      </c>
+      <c r="X68" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="6">
+        <f>P83</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="6">
+        <f>P82</f>
+        <v>16</v>
+      </c>
+      <c r="D69" s="6">
+        <f>P81</f>
+        <v>25</v>
+      </c>
+      <c r="E69" s="6">
+        <f>P80</f>
+        <v>47.5</v>
+      </c>
+      <c r="F69" s="6">
+        <f>P79</f>
+        <v>62</v>
+      </c>
+      <c r="G69" s="6">
+        <f>P78</f>
+        <v>78</v>
+      </c>
+      <c r="S69" s="19"/>
+      <c r="V69" s="24">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W69" s="22">
+        <v>5.5689239628374895E-2</v>
+      </c>
+      <c r="X69" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="6">
+        <f>S83</f>
+        <v>3.6</v>
+      </c>
+      <c r="C70" s="6">
+        <f>S82</f>
+        <v>3.6</v>
+      </c>
+      <c r="D70" s="6">
+        <f>S81</f>
+        <v>3.75</v>
+      </c>
+      <c r="E70" s="6">
+        <f>S80</f>
+        <v>4.05</v>
+      </c>
+      <c r="F70" s="6">
+        <f>S79</f>
+        <v>5</v>
+      </c>
+      <c r="G70" s="6">
+        <f>S78</f>
+        <v>5</v>
+      </c>
+      <c r="S70" s="19"/>
+      <c r="V70" s="25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W70" s="22">
+        <v>4.6085623567052196E-2</v>
+      </c>
+      <c r="X70" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="23">
+        <f>R83</f>
+        <v>0.42</v>
+      </c>
+      <c r="C71" s="23">
+        <f>R82</f>
+        <v>0.42</v>
+      </c>
+      <c r="D71" s="23">
+        <f>R81</f>
+        <v>0.24</v>
+      </c>
+      <c r="E71" s="23">
+        <f>R80</f>
+        <v>0.125</v>
+      </c>
+      <c r="F71" s="23">
+        <f>R79</f>
+        <v>0.09</v>
+      </c>
+      <c r="G71" s="23">
+        <f>R78</f>
+        <v>0.09</v>
+      </c>
+      <c r="S71" s="19"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S72" s="19"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S73" s="19"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="S74" s="19"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="S75" s="19"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P76" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P77" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P78" s="9">
+        <v>78</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="S78" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P79" s="9">
+        <v>62</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R79" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="S79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P80" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R80" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="S80" s="1">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P81" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="R81" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="S81" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P82" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="R82" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="S82" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P83" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R83" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="S83" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V53" s="24">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="W53" s="22">
-        <v>0.27537020278635105</v>
-      </c>
-      <c r="X53" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="6">
-        <f>Q67</f>
+      <c r="B93" s="6">
+        <f>Q106</f>
         <v>0</v>
       </c>
-      <c r="C54" s="6">
-        <f>Q68</f>
+      <c r="C93" s="6">
+        <f>Q107</f>
         <v>0.05</v>
       </c>
-      <c r="D54" s="6">
-        <f>Q69</f>
+      <c r="D93" s="6">
+        <f>Q108</f>
         <v>0.1</v>
       </c>
-      <c r="E54" s="6">
-        <f>Q70</f>
+      <c r="E93" s="6">
+        <f>Q109</f>
         <v>0.2</v>
       </c>
-      <c r="F54" s="6">
-        <f>Q71</f>
+      <c r="F93" s="6">
+        <f>Q110</f>
         <v>0.35</v>
       </c>
-      <c r="G54" s="6">
-        <f>Q72</f>
+      <c r="G93" s="6">
+        <f>Q111</f>
         <v>0.5</v>
       </c>
-      <c r="V54" s="24">
-        <v>0.185</v>
-      </c>
-      <c r="W54" s="22">
-        <v>0.19355265092014706</v>
-      </c>
-      <c r="X54" s="9">
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="6">
+        <f>S106</f>
+        <v>5.5</v>
+      </c>
+      <c r="C94" s="6">
+        <f>S107</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D94" s="6">
+        <f>S108</f>
+        <v>3.5</v>
+      </c>
+      <c r="E94" s="6">
+        <f>S109</f>
+        <v>3.4</v>
+      </c>
+      <c r="F94" s="6">
+        <f>S110</f>
+        <v>3.8</v>
+      </c>
+      <c r="G94" s="6">
+        <f>S111</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="23">
+        <f>R106</f>
+        <v>0.21</v>
+      </c>
+      <c r="C95" s="23">
+        <f>R107</f>
+        <v>0.21</v>
+      </c>
+      <c r="D95" s="23">
+        <f>R108</f>
+        <v>0.255</v>
+      </c>
+      <c r="E95" s="23">
+        <f>R109</f>
+        <v>0.34</v>
+      </c>
+      <c r="F95" s="23">
+        <f>R110</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G95" s="23">
+        <f>R111</f>
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="6">
+        <f>P111</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="6">
+        <f>P110</f>
+        <v>16</v>
+      </c>
+      <c r="D97" s="6">
+        <f>P109</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="E97" s="6">
+        <f>P108</f>
+        <v>47.5</v>
+      </c>
+      <c r="F97" s="6">
+        <f>P107</f>
+        <v>62</v>
+      </c>
+      <c r="G97" s="6">
+        <f>P106</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="6">
-        <f>S67</f>
+      <c r="B98" s="6">
+        <f>S111</f>
+        <v>3.8</v>
+      </c>
+      <c r="C98" s="6">
+        <f>S110</f>
+        <v>3.8</v>
+      </c>
+      <c r="D98" s="6">
+        <f>S109</f>
+        <v>3.4</v>
+      </c>
+      <c r="E98" s="6">
+        <f>S108</f>
+        <v>3.5</v>
+      </c>
+      <c r="F98" s="6">
+        <f>S107</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G98" s="6">
+        <f>S106</f>
         <v>5.5</v>
       </c>
-      <c r="C55" s="6">
-        <f>S68</f>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="23">
+        <f>R111</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C99" s="23">
+        <f>R110</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D99" s="23">
+        <f>R109</f>
+        <v>0.34</v>
+      </c>
+      <c r="E99" s="23">
+        <f>R108</f>
+        <v>0.255</v>
+      </c>
+      <c r="F99" s="23">
+        <f>R107</f>
+        <v>0.21</v>
+      </c>
+      <c r="G99" s="23">
+        <f>R106</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P104" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P105" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P106" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>0</v>
+      </c>
+      <c r="R106" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="S106" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P107" s="9">
+        <v>62</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="R107" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="S107" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D55" s="6">
-        <f>S69</f>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P108" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R108" s="4">
+        <v>0.255</v>
+      </c>
+      <c r="S108" s="1">
         <v>3.5</v>
       </c>
-      <c r="E55" s="6">
-        <f>S70</f>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P109" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R109" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="S109" s="1">
         <v>3.4</v>
       </c>
-      <c r="F55" s="6">
-        <f>S71</f>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P110" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="R110" s="4">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="S110" s="1">
         <v>3.8</v>
       </c>
-      <c r="G55" s="6">
-        <f>S72</f>
-        <v>3.8</v>
-      </c>
-      <c r="V55" s="24">
-        <v>0.121</v>
-      </c>
-      <c r="W55" s="22">
-        <v>0.10878935110598625</v>
-      </c>
-      <c r="X55" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="23">
-        <f>R67</f>
-        <v>0.21</v>
-      </c>
-      <c r="C56" s="23">
-        <f>R68</f>
-        <v>0.21</v>
-      </c>
-      <c r="D56" s="23">
-        <f>R69</f>
-        <v>0.255</v>
-      </c>
-      <c r="E56" s="23">
-        <f>R70</f>
-        <v>0.34</v>
-      </c>
-      <c r="F56" s="23">
-        <f>R71</f>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P111" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R111" s="4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G56" s="23">
-        <f>R72</f>
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="V56" s="24">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="W56" s="22">
-        <v>7.6466034034855926E-2</v>
-      </c>
-      <c r="X56" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V57" s="24">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="W57" s="22">
-        <v>6.4739856241990537E-2</v>
-      </c>
-      <c r="X57" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="6">
-        <f>P72</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="6">
-        <f>P71</f>
-        <v>16</v>
-      </c>
-      <c r="D58" s="6">
-        <f>P70</f>
-        <v>25</v>
-      </c>
-      <c r="E58" s="6">
-        <f>P69</f>
-        <v>47.5</v>
-      </c>
-      <c r="F58" s="6">
-        <f>P68</f>
-        <v>62</v>
-      </c>
-      <c r="G58" s="6">
-        <f>P67</f>
-        <v>80</v>
-      </c>
-      <c r="V58" s="24">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="W58" s="22">
-        <v>6.0849785914015388E-2</v>
-      </c>
-      <c r="X58" s="9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="6">
-        <f>S72</f>
-        <v>3.8</v>
-      </c>
-      <c r="C59" s="6">
-        <f>S71</f>
-        <v>3.8</v>
-      </c>
-      <c r="D59" s="6">
-        <f>S70</f>
-        <v>3.4</v>
-      </c>
-      <c r="E59" s="6">
-        <f>S69</f>
-        <v>3.5</v>
-      </c>
-      <c r="F59" s="6">
-        <f>S68</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G59" s="6">
-        <f>S67</f>
-        <v>5.5</v>
-      </c>
-      <c r="V59" s="24">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="W59" s="22">
-        <v>5.5689239628374895E-2</v>
-      </c>
-      <c r="X59" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="23">
-        <f>R72</f>
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="C60" s="23">
-        <f>R71</f>
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D60" s="23">
-        <f>R70</f>
-        <v>0.34</v>
-      </c>
-      <c r="E60" s="23">
-        <f>R69</f>
-        <v>0.255</v>
-      </c>
-      <c r="F60" s="23">
-        <f>R68</f>
-        <v>0.21</v>
-      </c>
-      <c r="G60" s="23">
-        <f>R67</f>
-        <v>0.21</v>
-      </c>
-      <c r="V60" s="25">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="W60" s="22">
-        <v>4.6085623567052196E-2</v>
-      </c>
-      <c r="X60" s="9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-    </row>
-    <row r="66" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P66" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P67" s="9">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0</v>
-      </c>
-      <c r="R67" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="S67" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="68" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P68" s="9">
-        <v>62</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="R68" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="S68" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P69" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R69" s="4">
-        <v>0.255</v>
-      </c>
-      <c r="S69" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="70" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P70" s="9">
-        <v>25</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="R70" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="S70" s="1">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="71" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P71" s="9">
-        <v>16</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="R71" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="S71" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="72" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P72" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R72" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="S72" s="1">
+      <c r="S111" s="1">
         <v>3.8</v>
       </c>
     </row>

--- a/myESC-Particle-DEV/saves/matlabTuning.xlsx
+++ b/myESC-Particle-DEV/saves/matlabTuning.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\ESC\myESC-Particle-DEV\saves\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19650" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20976" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Retune 20161102" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -56,9 +61,6 @@
   </si>
   <si>
     <t>Design LG, r/s</t>
-  </si>
-  <si>
-    <t>Entries for potESC.ino Arduino</t>
   </si>
   <si>
     <t>TauT, s</t>
@@ -154,13 +156,16 @@
     <t>E.TauE=0.1, tldF=0.15,tlgF=0.03, Step</t>
   </si>
   <si>
-    <t>Entries for potESC.ino Arduino   FIXED LEAD</t>
-  </si>
-  <si>
     <t>Design LG FIXED, r/s</t>
   </si>
   <si>
     <t>Design tld FIXED, s</t>
+  </si>
+  <si>
+    <t>Entries for potESC.ino FIXED LEAD</t>
+  </si>
+  <si>
+    <t>Entries for potESC.ino</t>
   </si>
 </sst>
 </file>
@@ -544,8 +549,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215125376"/>
-        <c:axId val="215135744"/>
+        <c:axId val="106091272"/>
+        <c:axId val="106086960"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -713,11 +718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215152128"/>
-        <c:axId val="215137664"/>
+        <c:axId val="106088528"/>
+        <c:axId val="106088136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215125376"/>
+        <c:axId val="106091272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -747,12 +752,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215135744"/>
+        <c:crossAx val="106086960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215135744"/>
+        <c:axId val="106086960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -788,12 +793,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215125376"/>
+        <c:crossAx val="106091272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215137664"/>
+        <c:axId val="106088136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -823,12 +828,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215152128"/>
+        <c:crossAx val="106088528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215152128"/>
+        <c:axId val="106088528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215137664"/>
+        <c:crossAx val="106088136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1092,8 +1097,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215200896"/>
-        <c:axId val="215202816"/>
+        <c:axId val="106089704"/>
+        <c:axId val="106090096"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1261,11 +1266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215206912"/>
-        <c:axId val="215204992"/>
+        <c:axId val="106090880"/>
+        <c:axId val="106090488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215200896"/>
+        <c:axId val="106089704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1288,19 +1293,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215202816"/>
+        <c:crossAx val="106090096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215202816"/>
+        <c:axId val="106090096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -1329,19 +1333,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215200896"/>
+        <c:crossAx val="106089704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215204992"/>
+        <c:axId val="106090488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1365,19 +1368,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215206912"/>
+        <c:crossAx val="106090880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215206912"/>
+        <c:axId val="106090880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215204992"/>
+        <c:crossAx val="106090488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1641,8 +1643,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215263872"/>
-        <c:axId val="215270144"/>
+        <c:axId val="107007896"/>
+        <c:axId val="541418096"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1810,11 +1812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215278336"/>
-        <c:axId val="215272064"/>
+        <c:axId val="541421232"/>
+        <c:axId val="541416920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215263872"/>
+        <c:axId val="107007896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1844,12 +1846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215270144"/>
+        <c:crossAx val="541418096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215270144"/>
+        <c:axId val="541418096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -1885,12 +1887,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215263872"/>
+        <c:crossAx val="107007896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215272064"/>
+        <c:axId val="541416920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1920,12 +1922,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215278336"/>
+        <c:crossAx val="541421232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215278336"/>
+        <c:axId val="541421232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215272064"/>
+        <c:crossAx val="541416920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2189,8 +2191,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215318912"/>
-        <c:axId val="215320832"/>
+        <c:axId val="541422408"/>
+        <c:axId val="541418488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2358,11 +2360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215329024"/>
-        <c:axId val="215327104"/>
+        <c:axId val="541415744"/>
+        <c:axId val="541421624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215318912"/>
+        <c:axId val="541422408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2385,19 +2387,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215320832"/>
+        <c:crossAx val="541418488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215320832"/>
+        <c:axId val="541418488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -2426,19 +2427,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215318912"/>
+        <c:crossAx val="541422408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215327104"/>
+        <c:axId val="541421624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2462,19 +2462,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215329024"/>
+        <c:crossAx val="541415744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215329024"/>
+        <c:axId val="541415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215327104"/>
+        <c:crossAx val="541421624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2738,8 +2737,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115506176"/>
-        <c:axId val="116655232"/>
+        <c:axId val="541422800"/>
+        <c:axId val="541416528"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2907,11 +2906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116667520"/>
-        <c:axId val="116657152"/>
+        <c:axId val="541423192"/>
+        <c:axId val="541420056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115506176"/>
+        <c:axId val="541422800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2941,12 +2940,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116655232"/>
+        <c:crossAx val="541416528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116655232"/>
+        <c:axId val="541416528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -2982,12 +2981,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115506176"/>
+        <c:crossAx val="541422800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116657152"/>
+        <c:axId val="541420056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3017,12 +3016,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116667520"/>
+        <c:crossAx val="541423192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116667520"/>
+        <c:axId val="541423192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116657152"/>
+        <c:crossAx val="541420056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3291,8 +3290,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116728576"/>
-        <c:axId val="116730496"/>
+        <c:axId val="541420840"/>
+        <c:axId val="541418880"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3460,11 +3459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116750976"/>
-        <c:axId val="116749056"/>
+        <c:axId val="541417704"/>
+        <c:axId val="541417312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116728576"/>
+        <c:axId val="541420840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3494,12 +3493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116730496"/>
+        <c:crossAx val="541418880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116730496"/>
+        <c:axId val="541418880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -3535,12 +3534,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116728576"/>
+        <c:crossAx val="541420840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116749056"/>
+        <c:axId val="541417312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3570,12 +3569,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116750976"/>
+        <c:crossAx val="541417704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116750976"/>
+        <c:axId val="541417704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3585,7 +3584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116749056"/>
+        <c:crossAx val="541417312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3950,7 +3949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3985,7 +3984,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4197,42 +4196,42 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="P88" sqref="P88"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4246,10 +4245,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>4</v>
@@ -4282,18 +4281,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="18">
         <v>0.35</v>
@@ -4336,18 +4335,18 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="18">
         <v>0.3</v>
@@ -4390,18 +4389,18 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="18">
         <v>0.2</v>
@@ -4434,18 +4433,18 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="18">
         <v>0.1</v>
@@ -4488,18 +4487,18 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="18">
         <v>0.05</v>
@@ -4542,18 +4541,18 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="18">
         <v>0.02</v>
@@ -4596,21 +4595,21 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -4619,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>4</v>
@@ -4655,30 +4654,30 @@
         <v>13</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9">
         <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="18">
         <v>0.34399999999999997</v>
@@ -4736,18 +4735,18 @@
         <v>4.5579999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9">
         <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="18">
         <v>0.28999999999999998</v>
@@ -4774,18 +4773,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9">
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="18">
         <v>0.185</v>
@@ -4843,18 +4842,18 @@
         <v>2.035E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="9">
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="18">
         <v>8.5000000000000006E-2</v>
@@ -4912,18 +4911,18 @@
         <v>7.4374999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="9">
         <v>61</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="18">
         <v>0.04</v>
@@ -4950,18 +4949,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="18">
         <v>0.02</v>
@@ -5019,24 +5018,24 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -5045,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>4</v>
@@ -5075,36 +5074,36 @@
         <v>11</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9">
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="18">
         <v>0.34399999999999997</v>
@@ -5162,18 +5161,18 @@
         <v>2.3220000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="9">
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="18">
         <v>0.28999999999999998</v>
@@ -5200,18 +5199,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="9">
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="18">
         <v>0.185</v>
@@ -5253,7 +5252,7 @@
         <v>3.8174999999999999</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" ref="Q23:Q26" si="9">I23*H23</f>
+        <f t="shared" ref="Q23:Q24" si="9">I23*H23</f>
         <v>0.92390909750962025</v>
       </c>
       <c r="R23" s="5">
@@ -5265,22 +5264,22 @@
         <v>0.33783783783783783</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" ref="T23:T26" si="11">R23*E23</f>
+        <f t="shared" ref="T23:T24" si="11">R23*E23</f>
         <v>1.15625E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="9">
         <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="18">
         <v>8.5000000000000006E-2</v>
@@ -5338,18 +5337,18 @@
         <v>4.6750000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9">
         <v>61</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="18">
         <v>0.04</v>
@@ -5376,18 +5375,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9">
         <v>70</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="18">
         <v>0.02</v>
@@ -5429,7 +5428,7 @@
         <v>5.0128000000000004</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" ref="Q26:Q27" si="12">I26*H26</f>
+        <f t="shared" ref="Q26" si="12">I26*H26</f>
         <v>0.46518188567186347</v>
       </c>
       <c r="R26" s="5">
@@ -5441,32 +5440,32 @@
         <v>1.7500000000000002</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" ref="T26:T27" si="13">R26*E26</f>
+        <f t="shared" ref="T26" si="13">R26*E26</f>
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="H29" s="9"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -5475,13 +5474,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>5</v>
@@ -5508,18 +5507,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="9">
         <v>16</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="18">
         <v>0.34399999999999997</v>
@@ -5547,18 +5546,18 @@
       </c>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="9">
         <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="18">
         <v>0.28999999999999998</v>
@@ -5586,18 +5585,18 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="9">
         <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="18">
         <v>0.185</v>
@@ -5625,18 +5624,18 @@
       </c>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="9">
         <v>47</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="18">
         <v>8.5000000000000006E-2</v>
@@ -5664,18 +5663,18 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="9">
         <v>61</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="18">
         <v>0.04</v>
@@ -5703,18 +5702,18 @@
       </c>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="9">
         <v>70</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="18">
         <v>0.02</v>
@@ -5742,7 +5741,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -5762,17 +5761,17 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>14</v>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6">
         <f>Q52</f>
@@ -5802,9 +5801,9 @@
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="6">
         <f>S52</f>
@@ -5834,9 +5833,9 @@
       <c r="T40" s="20"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="23">
         <f>R52</f>
@@ -5866,14 +5865,14 @@
       <c r="T41" s="20"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S42" s="19"/>
       <c r="T42" s="20"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="6">
         <f>P57</f>
@@ -5903,9 +5902,9 @@
       <c r="T43" s="20"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="6">
         <f>S57</f>
@@ -5935,9 +5934,9 @@
       <c r="T44" s="20"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="23">
         <f>R57</f>
@@ -5967,17 +5966,17 @@
       <c r="T45" s="20"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S46" s="19"/>
       <c r="T46" s="20"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S47" s="19"/>
       <c r="T47" s="20"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -5989,7 +5988,7 @@
       <c r="T48" s="20"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -6001,29 +6000,29 @@
       <c r="T49" s="20"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P50" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P51" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="S51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P52" s="9">
         <v>78</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P53" s="9">
         <v>62</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P54" s="9">
         <v>47.5</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P55" s="9">
         <v>25</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P56" s="9">
         <v>16</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P57" s="9">
         <v>0</v>
       </c>
@@ -6107,30 +6106,30 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V59" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V60" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W61" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W61" s="21" t="s">
-        <v>35</v>
-      </c>
       <c r="X61" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V62" s="24">
         <v>0.34399999999999997</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V63" s="24">
         <v>0.27100000000000002</v>
       </c>
@@ -6152,9 +6151,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>46</v>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S64" s="7"/>
       <c r="V64" s="24">
@@ -6167,9 +6166,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="6">
         <f>Q78</f>
@@ -6206,9 +6205,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="6">
         <f>S78</f>
@@ -6245,9 +6244,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="23">
         <f>R78</f>
@@ -6284,7 +6283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S68" s="19"/>
       <c r="V68" s="24">
         <v>6.4000000000000001E-2</v>
@@ -6296,9 +6295,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" s="6">
         <f>P83</f>
@@ -6335,9 +6334,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70" s="6">
         <f>S83</f>
@@ -6374,9 +6373,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" s="23">
         <f>R83</f>
@@ -6404,13 +6403,13 @@
       </c>
       <c r="S71" s="19"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S72" s="19"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S73" s="19"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6420,7 +6419,7 @@
       <c r="G74" s="7"/>
       <c r="S74" s="19"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6430,29 +6429,29 @@
       <c r="G75" s="7"/>
       <c r="S75" s="19"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P76" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P77" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R77" s="1" t="s">
+      <c r="S77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S77" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P78" s="9">
         <v>78</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P79" s="9">
         <v>62</v>
       </c>
@@ -6480,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P80" s="9">
         <v>47.5</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P81" s="9">
         <v>25</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P82" s="9">
         <v>16</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P83" s="9">
         <v>0</v>
       </c>
@@ -6536,14 +6535,14 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" s="6">
         <f>Q106</f>
@@ -6570,9 +6569,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94" s="6">
         <f>S106</f>
@@ -6599,9 +6598,9 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B95" s="23">
         <f>R106</f>
@@ -6628,9 +6627,9 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B97" s="6">
         <f>P111</f>
@@ -6657,9 +6656,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98" s="6">
         <f>S111</f>
@@ -6686,9 +6685,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B99" s="23">
         <f>R111</f>
@@ -6715,29 +6714,29 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P104" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P105" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S105" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P106" s="9">
         <v>80</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P107" s="9">
         <v>62</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P108" s="9">
         <v>47.5</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P109" s="9">
         <v>25</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P110" s="9">
         <v>16</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P111" s="9">
         <v>0</v>
       </c>
